--- a/data/survey_data/combined_data/sat_data_combined2.xlsx
+++ b/data/survey_data/combined_data/sat_data_combined2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weijiechua/Desktop/ImperialClasses/Courses/thirdterm/individual/official/official_sat_chatbot/data/survey_data/combined_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C603141-C0D6-AB4C-A5AC-8C97683491C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB57B7-5FCE-CB46-A7B5-DE71231B4D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="940" windowWidth="25380" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="940" windowWidth="25380" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1205">
   <si>
     <t>A01</t>
   </si>
@@ -2114,9 +2114,6 @@
   </si>
   <si>
     <t>Thanks, you were brilliant today. I hope I will see you soon, bye!</t>
-  </si>
-  <si>
-    <t>Many thanks for your cooperation. I hope to see you again soon.</t>
   </si>
   <si>
     <t>Let us start practicing Exercise 9 to overcome negative emotions.</t>
@@ -4092,10 +4089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN25"/>
+  <dimension ref="A1:BN24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="BM21" zoomScale="125" workbookViewId="0">
+      <selection activeCell="BR24" sqref="BR24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4369,7 +4366,7 @@
         <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -4569,7 +4566,7 @@
         <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F3" t="s">
         <v>125</v>
@@ -4593,7 +4590,7 @@
         <v>129</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N3" t="s">
         <v>130</v>
@@ -4769,7 +4766,7 @@
         <v>175</v>
       </c>
       <c r="E4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F4" t="s">
         <v>657</v>
@@ -4969,7 +4966,7 @@
         <v>224</v>
       </c>
       <c r="E5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F5" t="s">
         <v>225</v>
@@ -5169,7 +5166,7 @@
         <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F6" t="s">
         <v>225</v>
@@ -5193,7 +5190,7 @@
         <v>283</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N6" t="s">
         <v>284</v>
@@ -5369,7 +5366,7 @@
         <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F7" t="s">
         <v>324</v>
@@ -5393,7 +5390,7 @@
         <v>330</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="N7" t="s">
         <v>331</v>
@@ -5569,7 +5566,7 @@
         <v>373</v>
       </c>
       <c r="E8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F8" t="s">
         <v>658</v>
@@ -5769,7 +5766,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F9" t="s">
         <v>584</v>
@@ -5793,7 +5790,7 @@
         <v>73</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N9" t="s">
         <v>75</v>
@@ -5969,7 +5966,7 @@
         <v>583</v>
       </c>
       <c r="E10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F10" t="s">
         <v>466</v>
@@ -5993,7 +5990,7 @@
         <v>467</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N10" t="s">
         <v>468</v>
@@ -6169,7 +6166,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F11" t="s">
         <v>584</v>
@@ -6193,7 +6190,7 @@
         <v>509</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N11" t="s">
         <v>510</v>
@@ -6369,7 +6366,7 @@
         <v>373</v>
       </c>
       <c r="E12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F12" t="s">
         <v>531</v>
@@ -6393,7 +6390,7 @@
         <v>536</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N12" t="s">
         <v>537</v>
@@ -6569,7 +6566,7 @@
         <v>544</v>
       </c>
       <c r="E13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F13" t="s">
         <v>545</v>
@@ -6769,7 +6766,7 @@
         <v>560</v>
       </c>
       <c r="E14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F14" t="s">
         <v>561</v>
@@ -6793,7 +6790,7 @@
         <v>566</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N14" t="s">
         <v>567</v>
@@ -6963,193 +6960,193 @@
         <v>122</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>719</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>720</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>584</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="L15" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="N15" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="O15" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="P15" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="Q15" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="R15" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="S15" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="T15" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="T15" s="8" t="s">
+      <c r="U15" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="V15" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="V15" s="8" t="s">
+      <c r="W15" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="W15" s="8" t="s">
+      <c r="X15" s="8" t="s">
         <v>737</v>
-      </c>
-      <c r="X15" s="8" t="s">
-        <v>738</v>
       </c>
       <c r="Y15" s="9" t="s">
         <v>622</v>
       </c>
       <c r="Z15" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA15" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="AA15" s="9" t="s">
+      <c r="AB15" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="AB15" s="8" t="s">
+      <c r="AC15" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="AC15" s="8" t="s">
+      <c r="AD15" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="AD15" s="8" t="s">
+      <c r="AE15" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="AE15" s="9" t="s">
+      <c r="AF15" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="AF15" s="10" t="s">
+      <c r="AG15" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="AG15" s="9" t="s">
+      <c r="AH15" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="AH15" s="9" t="s">
+      <c r="AI15" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="AI15" s="8" t="s">
+      <c r="AJ15" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="AJ15" s="8" t="s">
+      <c r="AK15" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="AK15" s="8" t="s">
+      <c r="AL15" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="AL15" s="8" t="s">
+      <c r="AM15" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="AM15" s="9" t="s">
+      <c r="AN15" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="AN15" s="9" t="s">
+      <c r="AO15" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="AO15" s="9" t="s">
+      <c r="AP15" s="8" t="s">
         <v>754</v>
-      </c>
-      <c r="AP15" s="8" t="s">
-        <v>755</v>
       </c>
       <c r="AQ15" s="9" t="s">
         <v>443</v>
       </c>
       <c r="AR15" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="AS15" s="9" t="s">
         <v>756</v>
-      </c>
-      <c r="AS15" s="9" t="s">
-        <v>757</v>
       </c>
       <c r="AT15" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AU15" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="AV15" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="AV15" s="9" t="s">
+      <c r="AW15" s="9" t="s">
         <v>759</v>
-      </c>
-      <c r="AW15" s="9" t="s">
-        <v>760</v>
       </c>
       <c r="AX15" s="9" t="s">
         <v>157</v>
       </c>
       <c r="AY15" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="AZ15" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="AZ15" s="9" t="s">
+      <c r="BA15" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="BA15" s="8" t="s">
+      <c r="BB15" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="BB15" s="8" t="s">
+      <c r="BC15" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="BC15" s="7" t="s">
+      <c r="BD15" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="BD15" s="7" t="s">
+      <c r="BE15" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="BE15" s="9" t="s">
+      <c r="BF15" s="9" t="s">
         <v>767</v>
-      </c>
-      <c r="BF15" s="9" t="s">
-        <v>768</v>
       </c>
       <c r="BG15" s="11" t="s">
         <v>409</v>
       </c>
       <c r="BH15" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="BI15" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="BI15" s="9" t="s">
+      <c r="BJ15" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="BJ15" s="9" t="s">
+      <c r="BK15" s="8" t="s">
         <v>771</v>
-      </c>
-      <c r="BK15" s="8" t="s">
-        <v>772</v>
       </c>
       <c r="BL15" s="9" t="s">
         <v>171</v>
       </c>
       <c r="BM15" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="BN15" t="s">
         <v>687</v>
@@ -7163,178 +7160,178 @@
         <v>64</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="O16" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="P16" s="10" t="s">
         <v>783</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>784</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>78</v>
       </c>
       <c r="R16" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="S16" s="11" t="s">
         <v>785</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="T16" s="10" t="s">
+      <c r="U16" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="10" t="s">
         <v>788</v>
       </c>
-      <c r="V16" s="10" t="s">
+      <c r="W16" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="W16" s="10" t="s">
+      <c r="X16" s="10" t="s">
         <v>790</v>
-      </c>
-      <c r="X16" s="10" t="s">
-        <v>791</v>
       </c>
       <c r="Y16" s="11" t="s">
         <v>241</v>
       </c>
       <c r="Z16" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="AA16" s="11" t="s">
         <v>792</v>
       </c>
-      <c r="AA16" s="11" t="s">
+      <c r="AB16" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="AB16" s="10" t="s">
+      <c r="AC16" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="AC16" s="10" t="s">
+      <c r="AD16" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="AD16" s="10" t="s">
+      <c r="AE16" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="AE16" s="11" t="s">
+      <c r="AF16" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="AF16" s="10" t="s">
+      <c r="AG16" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="AG16" s="11" t="s">
+      <c r="AH16" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="AH16" s="11" t="s">
+      <c r="AI16" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="AI16" s="10" t="s">
+      <c r="AJ16" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="AJ16" s="10" t="s">
+      <c r="AK16" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="AK16" s="10" t="s">
+      <c r="AL16" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="AL16" s="10" t="s">
+      <c r="AM16" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="AM16" s="11" t="s">
+      <c r="AN16" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="AN16" s="11" t="s">
+      <c r="AO16" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="AO16" s="11" t="s">
+      <c r="AP16" s="10" t="s">
         <v>807</v>
-      </c>
-      <c r="AP16" s="10" t="s">
-        <v>808</v>
       </c>
       <c r="AQ16" s="11" t="s">
         <v>443</v>
       </c>
       <c r="AR16" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="AS16" s="11" t="s">
         <v>809</v>
-      </c>
-      <c r="AS16" s="11" t="s">
-        <v>810</v>
       </c>
       <c r="AT16" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AU16" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="AV16" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="AW16" s="11" t="s">
         <v>811</v>
-      </c>
-      <c r="AV16" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="AW16" s="11" t="s">
-        <v>812</v>
       </c>
       <c r="AX16" s="11" t="s">
         <v>157</v>
       </c>
       <c r="AY16" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AZ16" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="BA16" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="BA16" s="10" t="s">
+      <c r="BB16" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="BB16" s="10" t="s">
+      <c r="BC16" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="BC16" s="7" t="s">
+      <c r="BD16" s="7" t="s">
         <v>816</v>
-      </c>
-      <c r="BD16" s="7" t="s">
-        <v>817</v>
       </c>
       <c r="BE16" s="11" t="s">
         <v>455</v>
       </c>
       <c r="BF16" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="BG16" s="11" t="s">
         <v>409</v>
       </c>
       <c r="BH16" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="BI16" s="11" t="s">
         <v>459</v>
@@ -7343,13 +7340,13 @@
         <v>411</v>
       </c>
       <c r="BK16" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="BL16" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="BM16" s="10" t="s">
         <v>820</v>
-      </c>
-      <c r="BM16" s="10" t="s">
-        <v>821</v>
       </c>
       <c r="BN16" t="s">
         <v>688</v>
@@ -7363,193 +7360,193 @@
         <v>222</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="O17" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="P17" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="Q17" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="R17" s="10" t="s">
         <v>836</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>837</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>422</v>
       </c>
       <c r="T17" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="U17" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="V17" s="10" t="s">
         <v>839</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>840</v>
       </c>
       <c r="W17" s="10" t="s">
         <v>382</v>
       </c>
       <c r="X17" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y17" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="Y17" s="11" t="s">
+      <c r="Z17" s="10" t="s">
         <v>842</v>
       </c>
-      <c r="Z17" s="10" t="s">
+      <c r="AA17" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="AA17" s="11" t="s">
+      <c r="AB17" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="AB17" s="10" t="s">
+      <c r="AC17" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="AC17" s="10" t="s">
+      <c r="AD17" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="AD17" s="10" t="s">
+      <c r="AE17" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="AE17" s="11" t="s">
+      <c r="AF17" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG17" s="11" t="s">
         <v>848</v>
       </c>
-      <c r="AF17" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="AG17" s="11" t="s">
+      <c r="AH17" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="AH17" s="11" t="s">
+      <c r="AI17" s="10" t="s">
         <v>850</v>
       </c>
-      <c r="AI17" s="10" t="s">
+      <c r="AJ17" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="AK17" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="AJ17" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="AK17" s="10" t="s">
+      <c r="AL17" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="AL17" s="10" t="s">
+      <c r="AM17" s="11" t="s">
         <v>853</v>
       </c>
-      <c r="AM17" s="11" t="s">
+      <c r="AN17" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="AN17" s="11" t="s">
+      <c r="AO17" s="11" t="s">
         <v>855</v>
       </c>
-      <c r="AO17" s="11" t="s">
+      <c r="AP17" s="10" t="s">
         <v>856</v>
-      </c>
-      <c r="AP17" s="10" t="s">
-        <v>857</v>
       </c>
       <c r="AQ17" s="11" t="s">
         <v>394</v>
       </c>
       <c r="AR17" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="AS17" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="AS17" s="11" t="s">
+      <c r="AT17" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="AT17" s="10" t="s">
+      <c r="AU17" s="11" t="s">
         <v>860</v>
       </c>
-      <c r="AU17" s="11" t="s">
+      <c r="AV17" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="AW17" s="11" t="s">
         <v>861</v>
-      </c>
-      <c r="AV17" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="AW17" s="11" t="s">
-        <v>862</v>
       </c>
       <c r="AX17" s="11" t="s">
         <v>107</v>
       </c>
       <c r="AY17" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AZ17" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="BA17" s="10" t="s">
         <v>863</v>
       </c>
-      <c r="BA17" s="10" t="s">
+      <c r="BB17" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="BB17" s="10" t="s">
+      <c r="BC17" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="BD17" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="BC17" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="BD17" s="7" t="s">
+      <c r="BE17" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="BE17" s="11" t="s">
+      <c r="BF17" s="11" t="s">
         <v>867</v>
-      </c>
-      <c r="BF17" s="11" t="s">
-        <v>868</v>
       </c>
       <c r="BG17" s="11" t="s">
         <v>409</v>
       </c>
       <c r="BH17" s="10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="BI17" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="BJ17" s="11" t="s">
         <v>411</v>
       </c>
       <c r="BK17" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="BL17" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="BL17" s="11" t="s">
+      <c r="BM17" s="10" t="s">
         <v>871</v>
-      </c>
-      <c r="BM17" s="10" t="s">
-        <v>872</v>
       </c>
       <c r="BN17" t="s">
         <v>689</v>
@@ -7566,190 +7563,190 @@
         <v>322</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="L18" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="10" t="s">
         <v>881</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>882</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>883</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>332</v>
       </c>
       <c r="P18" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q18" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="R18" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="R18" s="10" t="s">
+      <c r="S18" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="T18" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="11" t="s">
         <v>888</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="V18" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="V18" s="10" t="s">
+      <c r="W18" s="10" t="s">
         <v>890</v>
       </c>
-      <c r="W18" s="10" t="s">
+      <c r="X18" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="X18" s="10" t="s">
+      <c r="Y18" s="11" t="s">
         <v>892</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>893</v>
       </c>
       <c r="Z18" s="10" t="s">
         <v>340</v>
       </c>
       <c r="AA18" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AB18" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AD18" s="10" t="s">
         <v>895</v>
       </c>
-      <c r="AD18" s="10" t="s">
+      <c r="AE18" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="AE18" s="11" t="s">
+      <c r="AF18" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="AF18" s="10" t="s">
+      <c r="AG18" s="11" t="s">
         <v>898</v>
-      </c>
-      <c r="AG18" s="11" t="s">
-        <v>899</v>
       </c>
       <c r="AH18" s="11" t="s">
         <v>344</v>
       </c>
       <c r="AI18" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
         <v>900</v>
-      </c>
-      <c r="AJ18" s="10" t="s">
-        <v>901</v>
       </c>
       <c r="AK18" s="10" t="s">
         <v>347</v>
       </c>
       <c r="AL18" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="AM18" s="11" t="s">
         <v>902</v>
-      </c>
-      <c r="AM18" s="11" t="s">
-        <v>903</v>
       </c>
       <c r="AN18" s="11" t="s">
         <v>349</v>
       </c>
       <c r="AO18" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="AP18" s="10" t="s">
         <v>904</v>
-      </c>
-      <c r="AP18" s="10" t="s">
-        <v>905</v>
       </c>
       <c r="AQ18" s="11" t="s">
         <v>352</v>
       </c>
       <c r="AR18" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="AS18" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="AS18" s="11" t="s">
-        <v>859</v>
-      </c>
       <c r="AT18" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AU18" s="11" t="s">
         <v>356</v>
       </c>
       <c r="AV18" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AW18" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AX18" s="11" t="s">
         <v>575</v>
       </c>
       <c r="AY18" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="AZ18" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="AZ18" s="11" t="s">
+      <c r="BA18" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="BB18" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="BC18" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="BA18" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="BB18" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="BC18" s="7" t="s">
+      <c r="BD18" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="BD18" s="7" t="s">
+      <c r="BE18" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="BE18" s="11" t="s">
+      <c r="BF18" s="11" t="s">
         <v>911</v>
       </c>
-      <c r="BF18" s="11" t="s">
+      <c r="BG18" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="BG18" s="11" t="s">
+      <c r="BH18" s="10" t="s">
         <v>913</v>
-      </c>
-      <c r="BH18" s="10" t="s">
-        <v>914</v>
       </c>
       <c r="BI18" s="11" t="s">
         <v>654</v>
       </c>
       <c r="BJ18" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="BK18" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="BL18" s="11" t="s">
         <v>915</v>
       </c>
-      <c r="BK18" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="BL18" s="11" t="s">
+      <c r="BM18" s="10" t="s">
         <v>916</v>
-      </c>
-      <c r="BM18" s="10" t="s">
-        <v>917</v>
       </c>
       <c r="BN18" t="s">
         <v>690</v>
@@ -7763,94 +7760,94 @@
         <v>277</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="10" t="s">
         <v>926</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="N19" s="10" t="s">
         <v>927</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="O19" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="P19" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="Q19" s="10" t="s">
         <v>930</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="R19" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>931</v>
       </c>
-      <c r="R19" s="10" t="s">
-        <v>886</v>
-      </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="10" t="s">
         <v>932</v>
       </c>
-      <c r="T19" s="10" t="s">
+      <c r="U19" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="V19" s="10" t="s">
         <v>934</v>
       </c>
-      <c r="V19" s="10" t="s">
+      <c r="W19" s="10" t="s">
         <v>935</v>
       </c>
-      <c r="W19" s="10" t="s">
+      <c r="X19" s="10" t="s">
         <v>936</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>937</v>
       </c>
       <c r="Y19" s="11" t="s">
         <v>86</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AA19" s="11" t="s">
         <v>292</v>
       </c>
       <c r="AB19" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="AC19" s="10" t="s">
         <v>939</v>
       </c>
-      <c r="AC19" s="10" t="s">
+      <c r="AD19" s="10" t="s">
         <v>940</v>
       </c>
-      <c r="AD19" s="10" t="s">
+      <c r="AE19" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="AE19" s="11" t="s">
+      <c r="AF19" s="10" t="s">
         <v>942</v>
-      </c>
-      <c r="AF19" s="10" t="s">
-        <v>943</v>
       </c>
       <c r="AG19" s="11" t="s">
         <v>297</v>
@@ -7859,97 +7856,97 @@
         <v>95</v>
       </c>
       <c r="AI19" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="AJ19" s="10" t="s">
         <v>944</v>
       </c>
-      <c r="AJ19" s="10" t="s">
+      <c r="AK19" s="10" t="s">
         <v>945</v>
       </c>
-      <c r="AK19" s="10" t="s">
+      <c r="AL19" s="10" t="s">
         <v>946</v>
       </c>
-      <c r="AL19" s="10" t="s">
+      <c r="AM19" s="11" t="s">
         <v>947</v>
       </c>
-      <c r="AM19" s="11" t="s">
+      <c r="AN19" s="11" t="s">
         <v>948</v>
       </c>
-      <c r="AN19" s="11" t="s">
+      <c r="AO19" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="AO19" s="11" t="s">
+      <c r="AP19" s="10" t="s">
         <v>950</v>
       </c>
-      <c r="AP19" s="10" t="s">
+      <c r="AQ19" s="11" t="s">
         <v>951</v>
       </c>
-      <c r="AQ19" s="11" t="s">
+      <c r="AR19" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="AR19" s="11" t="s">
+      <c r="AS19" s="11" t="s">
         <v>953</v>
       </c>
-      <c r="AS19" s="11" t="s">
+      <c r="AT19" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="AT19" s="10" t="s">
+      <c r="AU19" s="11" t="s">
         <v>955</v>
       </c>
-      <c r="AU19" s="11" t="s">
+      <c r="AV19" s="11" t="s">
         <v>956</v>
       </c>
-      <c r="AV19" s="11" t="s">
+      <c r="AW19" s="11" t="s">
         <v>957</v>
-      </c>
-      <c r="AW19" s="11" t="s">
-        <v>958</v>
       </c>
       <c r="AX19" s="11" t="s">
         <v>575</v>
       </c>
       <c r="AY19" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="AZ19" s="11" t="s">
         <v>959</v>
       </c>
-      <c r="AZ19" s="11" t="s">
+      <c r="BA19" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="BB19" s="10" t="s">
         <v>960</v>
       </c>
-      <c r="BA19" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="BB19" s="10" t="s">
+      <c r="BC19" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="BC19" s="7" t="s">
+      <c r="BD19" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="BE19" s="11" t="s">
         <v>962</v>
       </c>
-      <c r="BD19" s="7" t="s">
-        <v>910</v>
-      </c>
-      <c r="BE19" s="11" t="s">
+      <c r="BF19" s="11" t="s">
         <v>963</v>
       </c>
-      <c r="BF19" s="11" t="s">
+      <c r="BG19" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="BG19" s="11" t="s">
+      <c r="BH19" s="10" t="s">
         <v>965</v>
-      </c>
-      <c r="BH19" s="10" t="s">
-        <v>966</v>
       </c>
       <c r="BI19" s="11" t="s">
         <v>654</v>
       </c>
       <c r="BJ19" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="BK19" s="10" t="s">
         <v>967</v>
       </c>
-      <c r="BK19" s="10" t="s">
+      <c r="BL19" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="BM19" s="10" t="s">
         <v>968</v>
-      </c>
-      <c r="BL19" s="11" t="s">
-        <v>916</v>
-      </c>
-      <c r="BM19" s="10" t="s">
-        <v>969</v>
       </c>
       <c r="BN19" t="s">
         <v>691</v>
@@ -7960,196 +7957,196 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>465</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>971</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>972</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>466</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="L20" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="10" t="s">
         <v>978</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="N20" s="10" t="s">
         <v>979</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="O20" s="10" t="s">
         <v>980</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="P20" s="10" t="s">
         <v>981</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="Q20" s="10" t="s">
         <v>982</v>
       </c>
-      <c r="Q20" s="10" t="s">
+      <c r="R20" s="10" t="s">
         <v>983</v>
       </c>
-      <c r="R20" s="10" t="s">
+      <c r="S20" s="11" t="s">
         <v>984</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="T20" s="10" t="s">
         <v>985</v>
       </c>
-      <c r="T20" s="10" t="s">
+      <c r="U20" s="11" t="s">
         <v>986</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="V20" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="V20" s="10" t="s">
+      <c r="W20" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="W20" s="10" t="s">
+      <c r="X20" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="X20" s="10" t="s">
+      <c r="Y20" s="11" t="s">
         <v>990</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Z20" s="10" t="s">
         <v>991</v>
       </c>
-      <c r="Z20" s="10" t="s">
+      <c r="AA20" s="11" t="s">
         <v>992</v>
-      </c>
-      <c r="AA20" s="11" t="s">
-        <v>993</v>
       </c>
       <c r="AB20" s="10" t="s">
         <v>629</v>
       </c>
       <c r="AC20" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="AD20" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="AE20" s="11" t="s">
         <v>994</v>
       </c>
-      <c r="AD20" s="10" t="s">
-        <v>941</v>
-      </c>
-      <c r="AE20" s="11" t="s">
+      <c r="AF20" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="AG20" s="11" t="s">
         <v>995</v>
-      </c>
-      <c r="AF20" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="AG20" s="11" t="s">
-        <v>996</v>
       </c>
       <c r="AH20" s="11" t="s">
         <v>86</v>
       </c>
       <c r="AI20" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="AJ20" s="10" t="s">
         <v>997</v>
       </c>
-      <c r="AJ20" s="10" t="s">
+      <c r="AK20" s="10" t="s">
         <v>998</v>
       </c>
-      <c r="AK20" s="10" t="s">
+      <c r="AL20" s="10" t="s">
         <v>999</v>
       </c>
-      <c r="AL20" s="10" t="s">
+      <c r="AM20" s="11" t="s">
         <v>1000</v>
       </c>
-      <c r="AM20" s="11" t="s">
+      <c r="AN20" s="11" t="s">
         <v>1001</v>
       </c>
-      <c r="AN20" s="11" t="s">
+      <c r="AO20" s="11" t="s">
         <v>1002</v>
       </c>
-      <c r="AO20" s="11" t="s">
+      <c r="AP20" s="10" t="s">
         <v>1003</v>
-      </c>
-      <c r="AP20" s="10" t="s">
-        <v>1004</v>
       </c>
       <c r="AQ20" s="11" t="s">
         <v>103</v>
       </c>
       <c r="AR20" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AS20" s="11" t="s">
         <v>1005</v>
       </c>
-      <c r="AS20" s="11" t="s">
+      <c r="AT20" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="AU20" s="11" t="s">
         <v>1006</v>
       </c>
-      <c r="AT20" s="10" t="s">
-        <v>955</v>
-      </c>
-      <c r="AU20" s="11" t="s">
+      <c r="AV20" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="AV20" s="11" t="s">
+      <c r="AW20" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="AW20" s="11" t="s">
+      <c r="AX20" s="11" t="s">
         <v>1009</v>
       </c>
-      <c r="AX20" s="11" t="s">
+      <c r="AY20" s="11" t="s">
         <v>1010</v>
       </c>
-      <c r="AY20" s="11" t="s">
+      <c r="AZ20" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="AZ20" s="11" t="s">
+      <c r="BA20" s="10" t="s">
         <v>1012</v>
       </c>
-      <c r="BA20" s="10" t="s">
+      <c r="BB20" s="10" t="s">
         <v>1013</v>
       </c>
-      <c r="BB20" s="10" t="s">
+      <c r="BC20" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="BC20" s="7" t="s">
+      <c r="BD20" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="BD20" s="7" t="s">
+      <c r="BE20" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="BF20" s="11" t="s">
         <v>1016</v>
       </c>
-      <c r="BE20" s="11" t="s">
-        <v>963</v>
-      </c>
-      <c r="BF20" s="11" t="s">
+      <c r="BG20" s="11" t="s">
         <v>1017</v>
       </c>
-      <c r="BG20" s="11" t="s">
+      <c r="BH20" s="10" t="s">
         <v>1018</v>
-      </c>
-      <c r="BH20" s="10" t="s">
-        <v>1019</v>
       </c>
       <c r="BI20" s="11" t="s">
         <v>525</v>
       </c>
       <c r="BJ20" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="BK20" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="BL20" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="BK20" s="10" t="s">
-        <v>968</v>
-      </c>
-      <c r="BL20" s="11" t="s">
+      <c r="BM20" s="10" t="s">
         <v>1021</v>
-      </c>
-      <c r="BM20" s="10" t="s">
-        <v>1022</v>
       </c>
       <c r="BN20" t="s">
         <v>692</v>
@@ -8169,7 +8166,7 @@
         <v>224</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>225</v>
@@ -8178,178 +8175,178 @@
         <v>226</v>
       </c>
       <c r="H21" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>1025</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="K21" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="L21" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="10" t="s">
         <v>1028</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>1029</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>1030</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>568</v>
       </c>
       <c r="P21" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Q21" s="10" t="s">
         <v>1031</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="R21" s="10" t="s">
         <v>1032</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="S21" s="11" t="s">
         <v>1033</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="T21" s="10" t="s">
         <v>1034</v>
       </c>
-      <c r="T21" s="10" t="s">
+      <c r="U21" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="V21" s="10" t="s">
         <v>1036</v>
       </c>
-      <c r="V21" s="10" t="s">
+      <c r="W21" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="X21" s="10" t="s">
         <v>1037</v>
-      </c>
-      <c r="W21" s="10" t="s">
-        <v>989</v>
-      </c>
-      <c r="X21" s="10" t="s">
-        <v>1038</v>
       </c>
       <c r="Y21" s="11" t="s">
         <v>241</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AA21" s="11" t="s">
         <v>292</v>
       </c>
       <c r="AB21" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AC21" s="10" t="s">
         <v>1040</v>
       </c>
-      <c r="AC21" s="10" t="s">
+      <c r="AD21" s="10" t="s">
         <v>1041</v>
       </c>
-      <c r="AD21" s="10" t="s">
+      <c r="AE21" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="AF21" s="10" t="s">
         <v>1042</v>
       </c>
-      <c r="AE21" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="AF21" s="10" t="s">
+      <c r="AG21" s="11" t="s">
         <v>1043</v>
-      </c>
-      <c r="AG21" s="11" t="s">
-        <v>1044</v>
       </c>
       <c r="AH21" s="11" t="s">
         <v>249</v>
       </c>
       <c r="AI21" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AJ21" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="AJ21" s="10" t="s">
+      <c r="AK21" s="10" t="s">
         <v>1046</v>
       </c>
-      <c r="AK21" s="10" t="s">
+      <c r="AL21" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="AL21" s="10" t="s">
+      <c r="AM21" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="AM21" s="11" t="s">
+      <c r="AN21" s="11" t="s">
         <v>1049</v>
       </c>
-      <c r="AN21" s="11" t="s">
+      <c r="AO21" s="11" t="s">
         <v>1050</v>
       </c>
-      <c r="AO21" s="11" t="s">
+      <c r="AP21" s="10" t="s">
         <v>1051</v>
       </c>
-      <c r="AP21" s="10" t="s">
+      <c r="AQ21" s="11" t="s">
         <v>1052</v>
       </c>
-      <c r="AQ21" s="11" t="s">
+      <c r="AR21" s="11" t="s">
         <v>1053</v>
       </c>
-      <c r="AR21" s="11" t="s">
+      <c r="AS21" s="11" t="s">
         <v>1054</v>
       </c>
-      <c r="AS21" s="11" t="s">
+      <c r="AT21" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="AU21" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="AT21" s="10" t="s">
-        <v>955</v>
-      </c>
-      <c r="AU21" s="11" t="s">
+      <c r="AV21" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AW21" s="11" t="s">
         <v>1056</v>
       </c>
-      <c r="AV21" s="11" t="s">
-        <v>1008</v>
-      </c>
-      <c r="AW21" s="11" t="s">
+      <c r="AX21" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AY21" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AZ21" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="AX21" s="11" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AY21" s="11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AZ21" s="11" t="s">
+      <c r="BA21" s="10" t="s">
         <v>1058</v>
-      </c>
-      <c r="BA21" s="10" t="s">
-        <v>1059</v>
       </c>
       <c r="BB21" s="10" t="s">
         <v>266</v>
       </c>
       <c r="BC21" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BD21" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="BE21" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="BF21" s="11" t="s">
         <v>1060</v>
       </c>
-      <c r="BE21" s="11" t="s">
-        <v>963</v>
-      </c>
-      <c r="BF21" s="11" t="s">
+      <c r="BG21" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="BH21" s="10" t="s">
         <v>1061</v>
       </c>
-      <c r="BG21" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="BH21" s="10" t="s">
+      <c r="BI21" s="11" t="s">
         <v>1062</v>
-      </c>
-      <c r="BI21" s="11" t="s">
-        <v>1063</v>
       </c>
       <c r="BJ21" s="11" t="s">
         <v>273</v>
       </c>
       <c r="BK21" s="10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="BL21" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="BM21" s="10" t="s">
         <v>1064</v>
-      </c>
-      <c r="BM21" s="10" t="s">
-        <v>1065</v>
       </c>
       <c r="BN21" t="s">
         <v>693</v>
@@ -8363,94 +8360,94 @@
         <v>277</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="6" t="s">
         <v>1070</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>1071</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>1072</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>1073</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="L22" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="10" t="s">
         <v>1075</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="N22" s="10" t="s">
         <v>1076</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>1077</v>
       </c>
       <c r="O22" s="10" t="s">
         <v>552</v>
       </c>
       <c r="P22" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="Q22" s="10" t="s">
         <v>1078</v>
       </c>
-      <c r="Q22" s="10" t="s">
+      <c r="R22" s="10" t="s">
         <v>1079</v>
       </c>
-      <c r="R22" s="10" t="s">
+      <c r="S22" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T22" s="10" t="s">
         <v>1080</v>
       </c>
-      <c r="S22" s="11" t="s">
-        <v>1034</v>
-      </c>
-      <c r="T22" s="10" t="s">
+      <c r="U22" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="V22" s="10" t="s">
         <v>1082</v>
       </c>
-      <c r="V22" s="10" t="s">
+      <c r="W22" s="10" t="s">
         <v>1083</v>
       </c>
-      <c r="W22" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>1084</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>1085</v>
       </c>
       <c r="Y22" s="11" t="s">
         <v>86</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AA22" s="11" t="s">
         <v>292</v>
       </c>
       <c r="AB22" s="10" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AC22" s="10" t="s">
         <v>1087</v>
       </c>
-      <c r="AC22" s="10" t="s">
+      <c r="AD22" s="10" t="s">
         <v>1088</v>
       </c>
-      <c r="AD22" s="10" t="s">
+      <c r="AE22" s="11" t="s">
         <v>1089</v>
       </c>
-      <c r="AE22" s="11" t="s">
+      <c r="AF22" s="10" t="s">
         <v>1090</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>1091</v>
       </c>
       <c r="AG22" s="11" t="s">
         <v>297</v>
@@ -8459,97 +8456,97 @@
         <v>95</v>
       </c>
       <c r="AI22" s="10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AJ22" s="10" t="s">
         <v>1092</v>
       </c>
-      <c r="AJ22" s="10" t="s">
+      <c r="AK22" s="10" t="s">
         <v>1093</v>
       </c>
-      <c r="AK22" s="10" t="s">
+      <c r="AL22" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="AL22" s="10" t="s">
+      <c r="AM22" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="AM22" s="11" t="s">
+      <c r="AN22" s="11" t="s">
         <v>1096</v>
       </c>
-      <c r="AN22" s="11" t="s">
+      <c r="AO22" s="11" t="s">
         <v>1097</v>
       </c>
-      <c r="AO22" s="11" t="s">
+      <c r="AP22" s="10" t="s">
         <v>1098</v>
       </c>
-      <c r="AP22" s="10" t="s">
+      <c r="AQ22" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="AQ22" s="11" t="s">
+      <c r="AR22" s="11" t="s">
         <v>1100</v>
       </c>
-      <c r="AR22" s="11" t="s">
+      <c r="AS22" s="11" t="s">
         <v>1101</v>
-      </c>
-      <c r="AS22" s="11" t="s">
-        <v>1102</v>
       </c>
       <c r="AT22" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AU22" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AV22" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="AV22" s="11" t="s">
-        <v>1104</v>
-      </c>
       <c r="AW22" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AX22" s="11" t="s">
         <v>107</v>
       </c>
       <c r="AY22" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AZ22" s="11" t="s">
         <v>1105</v>
       </c>
-      <c r="AZ22" s="11" t="s">
+      <c r="BA22" s="10" t="s">
         <v>1106</v>
       </c>
-      <c r="BA22" s="10" t="s">
+      <c r="BB22" s="10" t="s">
         <v>1107</v>
       </c>
-      <c r="BB22" s="10" t="s">
+      <c r="BC22" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="BD22" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="BE22" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="BF22" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="BC22" s="7" t="s">
-        <v>1015</v>
-      </c>
-      <c r="BD22" s="7" t="s">
-        <v>1060</v>
-      </c>
-      <c r="BE22" s="11" t="s">
-        <v>963</v>
-      </c>
-      <c r="BF22" s="11" t="s">
+      <c r="BG22" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="BH22" s="10" t="s">
         <v>1109</v>
       </c>
-      <c r="BG22" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="BH22" s="10" t="s">
+      <c r="BI22" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="BJ22" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="BI22" s="11" t="s">
-        <v>1063</v>
-      </c>
-      <c r="BJ22" s="11" t="s">
+      <c r="BK22" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="BL22" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="BM22" s="10" t="s">
         <v>1111</v>
-      </c>
-      <c r="BK22" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="BL22" s="11" t="s">
-        <v>916</v>
-      </c>
-      <c r="BM22" s="10" t="s">
-        <v>1112</v>
       </c>
       <c r="BN22" t="s">
         <v>694</v>
@@ -8560,148 +8557,148 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>1113</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>1114</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="6" t="s">
         <v>1116</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>1118</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="K23" s="6" t="s">
         <v>1119</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="L23" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="10" t="s">
         <v>1121</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>1122</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>537</v>
       </c>
       <c r="O23" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="P23" s="10" t="s">
         <v>1123</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="Q23" s="10" t="s">
         <v>1124</v>
       </c>
-      <c r="Q23" s="10" t="s">
+      <c r="R23" s="10" t="s">
         <v>1125</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="S23" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="T23" s="10" t="s">
         <v>1126</v>
       </c>
-      <c r="S23" s="11" t="s">
-        <v>985</v>
-      </c>
-      <c r="T23" s="10" t="s">
+      <c r="U23" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="U23" s="11" t="s">
+      <c r="V23" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="V23" s="10" t="s">
+      <c r="W23" s="10" t="s">
         <v>1129</v>
       </c>
-      <c r="W23" s="10" t="s">
+      <c r="X23" s="10" t="s">
         <v>1130</v>
-      </c>
-      <c r="X23" s="10" t="s">
-        <v>1131</v>
       </c>
       <c r="Y23" s="11" t="s">
         <v>241</v>
       </c>
       <c r="Z23" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AA23" s="11" t="s">
         <v>1132</v>
       </c>
-      <c r="AA23" s="11" t="s">
+      <c r="AB23" s="10" t="s">
         <v>1133</v>
       </c>
-      <c r="AB23" s="10" t="s">
+      <c r="AC23" s="10" t="s">
         <v>1134</v>
       </c>
-      <c r="AC23" s="10" t="s">
+      <c r="AD23" s="10" t="s">
         <v>1135</v>
-      </c>
-      <c r="AD23" s="10" t="s">
-        <v>1136</v>
       </c>
       <c r="AE23" s="11" t="s">
         <v>246</v>
       </c>
       <c r="AF23" s="10" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AG23" s="11" t="s">
         <v>1137</v>
-      </c>
-      <c r="AG23" s="11" t="s">
-        <v>1138</v>
       </c>
       <c r="AH23" s="11" t="s">
         <v>249</v>
       </c>
       <c r="AI23" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AJ23" s="10" t="s">
         <v>1139</v>
       </c>
-      <c r="AJ23" s="10" t="s">
+      <c r="AK23" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AL23" s="10" t="s">
         <v>1140</v>
       </c>
-      <c r="AK23" s="10" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AL23" s="10" t="s">
+      <c r="AM23" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="AM23" s="11" t="s">
+      <c r="AN23" s="11" t="s">
         <v>1142</v>
       </c>
-      <c r="AN23" s="11" t="s">
+      <c r="AO23" s="11" t="s">
         <v>1143</v>
       </c>
-      <c r="AO23" s="11" t="s">
+      <c r="AP23" s="10" t="s">
         <v>1144</v>
       </c>
-      <c r="AP23" s="10" t="s">
+      <c r="AQ23" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AR23" s="11" t="s">
         <v>1145</v>
       </c>
-      <c r="AQ23" s="11" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AR23" s="11" t="s">
+      <c r="AS23" s="11" t="s">
         <v>1146</v>
-      </c>
-      <c r="AS23" s="11" t="s">
-        <v>1147</v>
       </c>
       <c r="AT23" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AU23" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AV23" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="AV23" s="11" t="s">
-        <v>1104</v>
-      </c>
       <c r="AW23" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AX23" s="11" t="s">
         <v>107</v>
@@ -8710,46 +8707,46 @@
         <v>449</v>
       </c>
       <c r="AZ23" s="11" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BA23" s="10" t="s">
         <v>1148</v>
-      </c>
-      <c r="BA23" s="10" t="s">
-        <v>1149</v>
       </c>
       <c r="BB23" s="10" t="s">
         <v>111</v>
       </c>
       <c r="BC23" s="7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="BD23" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="BE23" s="11" t="s">
         <v>1150</v>
       </c>
-      <c r="BD23" s="7" t="s">
-        <v>1060</v>
-      </c>
-      <c r="BE23" s="11" t="s">
+      <c r="BF23" s="11" t="s">
         <v>1151</v>
       </c>
-      <c r="BF23" s="11" t="s">
+      <c r="BG23" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="BH23" s="10" t="s">
         <v>1152</v>
       </c>
-      <c r="BG23" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="BH23" s="10" t="s">
+      <c r="BI23" s="11" t="s">
         <v>1153</v>
-      </c>
-      <c r="BI23" s="11" t="s">
-        <v>1154</v>
       </c>
       <c r="BJ23" s="11" t="s">
         <v>273</v>
       </c>
       <c r="BK23" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="BL23" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="BL23" s="11" t="s">
+      <c r="BM23" s="10" t="s">
         <v>1156</v>
-      </c>
-      <c r="BM23" s="10" t="s">
-        <v>1157</v>
       </c>
       <c r="BN23" t="s">
         <v>695</v>
@@ -8763,142 +8760,142 @@
         <v>173</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>1159</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>1160</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="6" t="s">
         <v>1162</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>1163</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>178</v>
       </c>
       <c r="J24" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="L24" s="7" t="s">
         <v>1165</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="10" t="s">
         <v>1166</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="N24" s="10" t="s">
         <v>1167</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="O24" s="10" t="s">
         <v>1168</v>
       </c>
-      <c r="O24" s="10" t="s">
+      <c r="P24" s="10" t="s">
         <v>1169</v>
       </c>
-      <c r="P24" s="10" t="s">
+      <c r="Q24" s="10" t="s">
         <v>1170</v>
       </c>
-      <c r="Q24" s="10" t="s">
+      <c r="R24" s="10" t="s">
         <v>1171</v>
       </c>
-      <c r="R24" s="10" t="s">
+      <c r="S24" s="11" t="s">
         <v>1172</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="T24" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="U24" s="11" t="s">
         <v>1173</v>
       </c>
-      <c r="T24" s="10" t="s">
-        <v>1127</v>
-      </c>
-      <c r="U24" s="11" t="s">
+      <c r="V24" s="10" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W24" s="10" t="s">
         <v>1174</v>
       </c>
-      <c r="V24" s="10" t="s">
-        <v>1129</v>
-      </c>
-      <c r="W24" s="10" t="s">
+      <c r="X24" s="10" t="s">
         <v>1175</v>
       </c>
-      <c r="X24" s="10" t="s">
+      <c r="Y24" s="11" t="s">
         <v>1176</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Z24" s="10" t="s">
         <v>1177</v>
       </c>
-      <c r="Z24" s="10" t="s">
+      <c r="AA24" s="11" t="s">
         <v>1178</v>
       </c>
-      <c r="AA24" s="11" t="s">
+      <c r="AB24" s="10" t="s">
         <v>1179</v>
       </c>
-      <c r="AB24" s="10" t="s">
+      <c r="AC24" s="10" t="s">
         <v>1180</v>
       </c>
-      <c r="AC24" s="10" t="s">
+      <c r="AD24" s="10" t="s">
         <v>1181</v>
-      </c>
-      <c r="AD24" s="10" t="s">
-        <v>1182</v>
       </c>
       <c r="AE24" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AF24" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AG24" s="11" t="s">
         <v>1183</v>
-      </c>
-      <c r="AG24" s="11" t="s">
-        <v>1184</v>
       </c>
       <c r="AH24" s="11" t="s">
         <v>200</v>
       </c>
       <c r="AI24" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AJ24" s="10" t="s">
         <v>1185</v>
       </c>
-      <c r="AJ24" s="10" t="s">
+      <c r="AK24" s="10" t="s">
         <v>1186</v>
       </c>
-      <c r="AK24" s="10" t="s">
+      <c r="AL24" s="10" t="s">
         <v>1187</v>
       </c>
-      <c r="AL24" s="10" t="s">
+      <c r="AM24" s="11" t="s">
         <v>1188</v>
-      </c>
-      <c r="AM24" s="11" t="s">
-        <v>1189</v>
       </c>
       <c r="AN24" s="11" t="s">
         <v>206</v>
       </c>
       <c r="AO24" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AP24" s="10" t="s">
         <v>1190</v>
-      </c>
-      <c r="AP24" s="10" t="s">
-        <v>1191</v>
       </c>
       <c r="AQ24" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AR24" s="11" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AS24" s="11" t="s">
         <v>1192</v>
-      </c>
-      <c r="AS24" s="11" t="s">
-        <v>1193</v>
       </c>
       <c r="AT24" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AU24" s="11" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AV24" s="11" t="s">
         <v>1194</v>
-      </c>
-      <c r="AV24" s="11" t="s">
-        <v>1195</v>
       </c>
       <c r="AW24" s="11" t="s">
         <v>671</v>
@@ -8907,57 +8904,52 @@
         <v>107</v>
       </c>
       <c r="AY24" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AZ24" s="11" t="s">
         <v>1196</v>
       </c>
-      <c r="AZ24" s="11" t="s">
+      <c r="BA24" s="10" t="s">
         <v>1197</v>
-      </c>
-      <c r="BA24" s="10" t="s">
-        <v>1198</v>
       </c>
       <c r="BB24" s="10" t="s">
         <v>111</v>
       </c>
       <c r="BC24" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="BD24" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="BE24" s="11" t="s">
         <v>1199</v>
       </c>
-      <c r="BE24" s="11" t="s">
+      <c r="BF24" s="11" t="s">
         <v>1200</v>
-      </c>
-      <c r="BF24" s="11" t="s">
-        <v>1201</v>
       </c>
       <c r="BG24" s="11" t="s">
         <v>576</v>
       </c>
       <c r="BH24" s="10" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="BI24" s="11" t="s">
         <v>525</v>
       </c>
       <c r="BJ24" s="11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BK24" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="BL24" s="11" t="s">
         <v>1203</v>
       </c>
-      <c r="BK24" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="BL24" s="11" t="s">
+      <c r="BM24" s="10" t="s">
         <v>1204</v>
-      </c>
-      <c r="BM24" s="10" t="s">
-        <v>1205</v>
       </c>
       <c r="BN24" t="s">
         <v>696</v>
-      </c>
-    </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="BN25" t="s">
-        <v>697</v>
       </c>
     </row>
   </sheetData>
